--- a/kaggle_intro.xlsx
+++ b/kaggle_intro.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cohhe\Desktop\仕事\mexess\2024\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E43B8E60-1147-4203-B251-5EA6CF6B3B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9B4124-BEA2-4CBF-9F29-5CA9CF623D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9B9A0FB-05C8-4AC5-9DCB-A029B339FE82}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D9B9A0FB-05C8-4AC5-9DCB-A029B339FE82}"/>
   </bookViews>
   <sheets>
     <sheet name="kaggleとは" sheetId="1" r:id="rId1"/>
+    <sheet name="2024下期" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>kaggleとは</t>
     <phoneticPr fontId="2"/>
@@ -538,6 +539,10 @@
     <rPh sb="5" eb="7">
       <t>モクヒョウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>competitionを4つ参加。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -636,13 +641,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1153,6 +1159,121 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>310825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD49946D-A393-A854-194E-D9912B3C046E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673652" y="717826"/>
+          <a:ext cx="8394651" cy="3611217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D7AABA-5D17-13F7-772E-DF182B3A6CE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601980" y="662940"/>
+          <a:ext cx="8747760" cy="3177540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1452,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB67156-279E-4E67-8FB9-E9D9861FA4B9}">
   <dimension ref="A1:AJ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="S90" sqref="S90"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2117,4 +2238,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8C42BB-373A-4800-B148-3CDE914ACFE9}">
+  <dimension ref="A1:AJ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" s="2" customFormat="1" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+    </row>
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/kaggle_intro.xlsx
+++ b/kaggle_intro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cohhe\Desktop\仕事\mexess\2024\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9B4124-BEA2-4CBF-9F29-5CA9CF623D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904B8403-6D85-40B9-9DEA-FE36CBABA60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D9B9A0FB-05C8-4AC5-9DCB-A029B339FE82}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>kaggleとは</t>
     <phoneticPr fontId="2"/>
@@ -543,6 +543,88 @@
   </si>
   <si>
     <t>competitionを4つ参加。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>multi-class prediction of cirrhosis outcomes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>多クラスアプローチを用いて肝硬変患者の転帰を予測する</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>カンコウヘン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンジャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データセット：肝硬変患者の生存予測データセット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>submissions</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>idテストセットの各行について、3つの結果Status_C、Status_CL、 の確率を予測する必要がありますStatus_D。ファイルにはヘッダーが含まれ、次の形式である必要があります</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/cohhey/notebook3ab06fdd49</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaceship　titanic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>救助隊を支援し、行方不明の乗客を救出するために、宇宙船の損傷したコンピュータ システムから回復した記録を使用して、どの乗客が異常現象によって運ばれたかを予測する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データセット：予測を支援するために、船の損傷したコンピュータシステムから回収された一連の個人記録が提供</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/cohhey/notebook1042dee1f6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Contradictory, My Dear Watson</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>与えられた仮説がその前提とcontradiction、entailment、 によって関連しているかどうか、あるいはどちらも真ではないかどうか（neutral）を予測する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データセット：異なる言語の前提と仮説のペア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>House Prices - Advanced Regression Techniques</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各住宅の最終価格を予測</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データセット：住宅データセット</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -550,7 +632,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,6 +678,23 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -638,10 +737,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -649,8 +749,11 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2242,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8C42BB-373A-4800-B148-3CDE914ACFE9}">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2298,9 +2401,108 @@
         <v>67</v>
       </c>
     </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C22" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C24" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C26" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D27" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C29" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C32" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C34" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C36" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C37" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C41" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C43" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C45" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C48" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C50" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C52" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="C29" r:id="rId1" xr:uid="{E3A221A7-8887-4E60-9C4B-49ACFF5374B1}"/>
+    <hyperlink ref="C37" r:id="rId2" xr:uid="{B81FDA93-705B-4D42-806D-1F299398B5E8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>